--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.90597433333333</v>
+        <v>4.592460999999999</v>
       </c>
       <c r="H2">
-        <v>35.717923</v>
+        <v>13.777383</v>
       </c>
       <c r="I2">
-        <v>0.008895149679642379</v>
+        <v>0.003302946473568516</v>
       </c>
       <c r="J2">
-        <v>0.008895149679642379</v>
+        <v>0.003302946473568516</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>204.3842655723967</v>
+        <v>9.309448110835332</v>
       </c>
       <c r="R2">
-        <v>1839.45839015157</v>
+        <v>83.78503299751799</v>
       </c>
       <c r="S2">
-        <v>0.0004984356179754694</v>
+        <v>2.178717484400384E-05</v>
       </c>
       <c r="T2">
-        <v>0.0004984356179754694</v>
+        <v>2.178717484400384E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.90597433333333</v>
+        <v>4.592460999999999</v>
       </c>
       <c r="H3">
-        <v>35.717923</v>
+        <v>13.777383</v>
       </c>
       <c r="I3">
-        <v>0.008895149679642379</v>
+        <v>0.003302946473568516</v>
       </c>
       <c r="J3">
-        <v>0.008895149679642379</v>
+        <v>0.003302946473568516</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
-        <v>3053.219317228163</v>
+        <v>1177.710470915425</v>
       </c>
       <c r="R3">
-        <v>27478.97385505346</v>
+        <v>10599.39423823883</v>
       </c>
       <c r="S3">
-        <v>0.0074459413641027</v>
+        <v>0.002756230405923183</v>
       </c>
       <c r="T3">
-        <v>0.0074459413641027</v>
+        <v>0.002756230405923183</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.90597433333333</v>
+        <v>4.592460999999999</v>
       </c>
       <c r="H4">
-        <v>35.717923</v>
+        <v>13.777383</v>
       </c>
       <c r="I4">
-        <v>0.008895149679642379</v>
+        <v>0.003302946473568516</v>
       </c>
       <c r="J4">
-        <v>0.008895149679642379</v>
+        <v>0.003302946473568516</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>389.8657570003575</v>
+        <v>224.2970153038057</v>
       </c>
       <c r="R4">
-        <v>3508.791813003218</v>
+        <v>2018.673137734251</v>
       </c>
       <c r="S4">
-        <v>0.0009507726975642093</v>
+        <v>0.0005249288928013296</v>
       </c>
       <c r="T4">
-        <v>0.0009507726975642093</v>
+        <v>0.0005249288928013295</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3615.307862</v>
       </c>
       <c r="I5">
-        <v>0.9003520325209805</v>
+        <v>0.8667225374846176</v>
       </c>
       <c r="J5">
-        <v>0.9003520325209804</v>
+        <v>0.8667225374846176</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N5">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q5">
-        <v>20687.43029075296</v>
+        <v>2442.882000593584</v>
       </c>
       <c r="R5">
-        <v>186186.8726167766</v>
+        <v>21985.93800534225</v>
       </c>
       <c r="S5">
-        <v>0.05045081172182221</v>
+        <v>0.00571714849651024</v>
       </c>
       <c r="T5">
-        <v>0.0504508117218222</v>
+        <v>0.00571714849651024</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3615.307862</v>
       </c>
       <c r="I6">
-        <v>0.9003520325209805</v>
+        <v>0.8667225374846176</v>
       </c>
       <c r="J6">
-        <v>0.9003520325209804</v>
+        <v>0.8667225374846176</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q6">
         <v>309041.7044122429</v>
@@ -818,10 +818,10 @@
         <v>2781375.339710185</v>
       </c>
       <c r="S6">
-        <v>0.7536656135809324</v>
+        <v>0.7232593777800571</v>
       </c>
       <c r="T6">
-        <v>0.7536656135809323</v>
+        <v>0.723259377780057</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3615.307862</v>
       </c>
       <c r="I7">
-        <v>0.9003520325209805</v>
+        <v>0.8667225374846176</v>
       </c>
       <c r="J7">
-        <v>0.9003520325209804</v>
+        <v>0.8667225374846176</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N7">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q7">
-        <v>39461.55369694856</v>
+        <v>58857.53214895624</v>
       </c>
       <c r="R7">
-        <v>355153.9832725371</v>
+        <v>529717.7893406061</v>
       </c>
       <c r="S7">
-        <v>0.09623560721822584</v>
+        <v>0.1377460112080504</v>
       </c>
       <c r="T7">
-        <v>0.09623560721822583</v>
+        <v>0.1377460112080503</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>121.4707743333333</v>
+        <v>180.7183073333333</v>
       </c>
       <c r="H8">
-        <v>364.412323</v>
+        <v>542.1549220000001</v>
       </c>
       <c r="I8">
-        <v>0.09075281779937723</v>
+        <v>0.1299745160418139</v>
       </c>
       <c r="J8">
-        <v>0.09075281779937722</v>
+        <v>0.1299745160418139</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N8">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q8">
-        <v>2085.231691716398</v>
+        <v>366.3368518094458</v>
       </c>
       <c r="R8">
-        <v>18767.08522544758</v>
+        <v>3297.031666285012</v>
       </c>
       <c r="S8">
-        <v>0.005085292373030239</v>
+        <v>0.0008573488940643712</v>
       </c>
       <c r="T8">
-        <v>0.005085292373030239</v>
+        <v>0.0008573488940643713</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>121.4707743333333</v>
+        <v>180.7183073333333</v>
       </c>
       <c r="H9">
-        <v>364.412323</v>
+        <v>542.1549220000001</v>
       </c>
       <c r="I9">
-        <v>0.09075281779937723</v>
+        <v>0.1299745160418139</v>
       </c>
       <c r="J9">
-        <v>0.09075281779937722</v>
+        <v>0.1299745160418139</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q9">
-        <v>31150.48834221376</v>
+        <v>46344.1807851125</v>
       </c>
       <c r="R9">
-        <v>280354.3950799239</v>
+        <v>417097.6270660126</v>
       </c>
       <c r="S9">
-        <v>0.0759672612938455</v>
+        <v>0.1084606474783572</v>
       </c>
       <c r="T9">
-        <v>0.07596726129384548</v>
+        <v>0.1084606474783572</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>121.4707743333333</v>
+        <v>180.7183073333333</v>
       </c>
       <c r="H10">
-        <v>364.412323</v>
+        <v>542.1549220000001</v>
       </c>
       <c r="I10">
-        <v>0.09075281779937723</v>
+        <v>0.1299745160418139</v>
       </c>
       <c r="J10">
-        <v>0.09075281779937722</v>
+        <v>0.1299745160418139</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N10">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q10">
-        <v>3977.607717185957</v>
+        <v>8826.330140990316</v>
       </c>
       <c r="R10">
-        <v>35798.46945467362</v>
+        <v>79436.97126891285</v>
       </c>
       <c r="S10">
-        <v>0.009700264132501489</v>
+        <v>0.02065651966939231</v>
       </c>
       <c r="T10">
-        <v>0.009700264132501487</v>
+        <v>0.02065651966939231</v>
       </c>
     </row>
   </sheetData>
